--- a/biology/Botanique/Jardin_Van_Buuren/Jardin_Van_Buuren.xlsx
+++ b/biology/Botanique/Jardin_Van_Buuren/Jardin_Van_Buuren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aménagé par Jules Buyssens et René Pechère, le Jardin Van Buuren entoure le musée Alice et David van Buuren situé à Uccle, une commune de Bruxelles en  Belgique.
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Buyssens  conçoit la Grande roseraie, le Jardin pittoresque et le Jardin régulier dans l’esprit Art déco fin des années vingt, tandis que dans les années soixante, Alice Van Buuren conçoit les jardins de René Pechère — le Labyrinthe et le Jardin secret du cœur — comme un complément de la villa. S’étendant initialement, en 1924, sur 26 ares, les jardins mesurent aujourd'hui 1,2 hectare[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Buyssens  conçoit la Grande roseraie, le Jardin pittoresque et le Jardin régulier dans l’esprit Art déco fin des années vingt, tandis que dans les années soixante, Alice Van Buuren conçoit les jardins de René Pechère — le Labyrinthe et le Jardin secret du cœur — comme un complément de la villa. S’étendant initialement, en 1924, sur 26 ares, les jardins mesurent aujourd'hui 1,2 hectare.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
